--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{029A91A9-824A-B54C-8C5A-07E0630A4A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA50BE-CA15-D749-BD2F-672343A44334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="460" windowWidth="27240" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="269">
   <si>
     <t>label</t>
   </si>
@@ -808,6 +808,30 @@
   </si>
   <si>
     <t>microbiota in sludge, it seems like they have a paired set of experiments but unclear…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check supplementary info, constant vs flux </t>
+  </si>
+  <si>
+    <t>As thermal regimes change worldwide, projections of future population and species persistence often require estimates of how population growth rates depend on temperature. These projections rarely account for how temporal variation in temperature can systematically modify growth rates relative to projections based on constant temperatures. Here, we tested the hypothesis that time-averaged population growth rates in fluctuating thermal environments differ from growth rates in constant conditions as a consequence of Jensen's inequality, and that the thermal performance curves (TPCs) describing population growth in fluctuating environments can be predicted quantitatively based on TPCs generated in constant laboratory conditions. With experimental populations of the green alga Tetraselmis tetrahele, we show that nonlinear averaging techniques accurately predicted increased as well as decreased population growth rates in fluctuating thermal regimes relative to constant thermal regimes. We extrapolate from these results to project critical temperatures for population growth and persistence of 89 phytoplankton species in naturally variable thermal environments. These results advance our ability to predict population dynamics in the context of global change.</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2018.1076</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>Nonlinear averaging of thermal experience predicts population growth rates in a thermally variable environment</t>
+  </si>
+  <si>
+    <t>Bernhardt, Joey R. and Sunday, Jennifer M. and Thompson, Patrick L. and O'Connor, Mary I.</t>
+  </si>
+  <si>
+    <t>Bernhardt_2018_PROFTHROSOB.SC</t>
+  </si>
+  <si>
+    <t>figure 2, try and get figure s6 data from Joey</t>
   </si>
 </sst>
 </file>
@@ -855,10 +879,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,71 +1253,71 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>2009</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1304,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1318,25 +1343,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1348,14 +1373,11 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
@@ -1365,25 +1387,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1395,13 +1417,13 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
@@ -1412,25 +1434,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1442,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -1459,25 +1481,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1489,13 +1511,13 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
@@ -1506,25 +1528,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1536,13 +1558,13 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
         <v>21</v>
@@ -1553,25 +1575,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1583,13 +1605,13 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1600,25 +1622,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1630,11 +1652,14 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
       </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
@@ -1644,25 +1669,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1674,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1688,25 +1713,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1718,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1732,25 +1757,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F13">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -1762,13 +1787,10 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
-      </c>
-      <c r="M13" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
         <v>21</v>
@@ -1779,43 +1801,43 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
@@ -1826,31 +1848,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F15">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1862,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s">
         <v>21</v>
@@ -1873,25 +1895,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F16">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1903,13 +1925,13 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
@@ -1918,343 +1940,352 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17">
+        <v>2018</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>2012</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>2005</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>2008</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>2019</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>2017</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>2011</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2013</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F25" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>20</v>
@@ -2266,7 +2297,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>134</v>
@@ -2274,25 +2305,25 @@
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F26" s="1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2304,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>134</v>
@@ -2312,25 +2343,25 @@
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>20</v>
@@ -2342,33 +2373,33 @@
         <v>21</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F28" s="1">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>20</v>
@@ -2380,270 +2411,267 @@
         <v>21</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>2016</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>2020</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>2018</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>2009</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F34" s="2">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="1">
         <v>2020</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F35" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>20</v>
@@ -2654,10 +2682,51 @@
       <c r="J35" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="K35" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="M35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>134</v>
       </c>
     </row>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA50BE-CA15-D749-BD2F-672343A44334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77AD130-67B3-E644-AB06-742612CE84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27240" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28780" yWindow="-17860" windowWidth="24000" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="278">
   <si>
     <t>label</t>
   </si>
@@ -810,28 +810,55 @@
     <t>microbiota in sludge, it seems like they have a paired set of experiments but unclear…</t>
   </si>
   <si>
+    <t>Bernhardt_2018_PROFTHROSOB.SC</t>
+  </si>
+  <si>
+    <t>Bernhardt, Joey R. and Sunday, Jennifer M. and Thompson, Patrick L. and O'Connor, Mary I.</t>
+  </si>
+  <si>
+    <t>Nonlinear averaging of thermal experience predicts population growth rates in a thermally variable environment</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2018.1076</t>
+  </si>
+  <si>
+    <t>As thermal regimes change worldwide, projections of future population and species persistence often require estimates of how population growth rates depend on temperature. These projections rarely account for how temporal variation in temperature can systematically modify growth rates relative to projections based on constant temperatures. Here, we tested the hypothesis that time-averaged population growth rates in fluctuating thermal environments differ from growth rates in constant conditions as a consequence of Jensen's inequality, and that the thermal performance curves (TPCs) describing population growth in fluctuating environments can be predicted quantitatively based on TPCs generated in constant laboratory conditions. With experimental populations of the green alga Tetraselmis tetrahele, we show that nonlinear averaging techniques accurately predicted increased as well as decreased population growth rates in fluctuating thermal regimes relative to constant thermal regimes. We extrapolate from these results to project critical temperatures for population growth and persistence of 89 phytoplankton species in naturally variable thermal environments. These results advance our ability to predict population dynamics in the context of global change.</t>
+  </si>
+  <si>
     <t xml:space="preserve">check supplementary info, constant vs flux </t>
   </si>
   <si>
-    <t>As thermal regimes change worldwide, projections of future population and species persistence often require estimates of how population growth rates depend on temperature. These projections rarely account for how temporal variation in temperature can systematically modify growth rates relative to projections based on constant temperatures. Here, we tested the hypothesis that time-averaged population growth rates in fluctuating thermal environments differ from growth rates in constant conditions as a consequence of Jensen's inequality, and that the thermal performance curves (TPCs) describing population growth in fluctuating environments can be predicted quantitatively based on TPCs generated in constant laboratory conditions. With experimental populations of the green alga Tetraselmis tetrahele, we show that nonlinear averaging techniques accurately predicted increased as well as decreased population growth rates in fluctuating thermal regimes relative to constant thermal regimes. We extrapolate from these results to project critical temperatures for population growth and persistence of 89 phytoplankton species in naturally variable thermal environments. These results advance our ability to predict population dynamics in the context of global change.</t>
-  </si>
-  <si>
-    <t>10.1098/rspb.2018.1076</t>
-  </si>
-  <si>
-    <t>PROCEEDINGS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES</t>
-  </si>
-  <si>
-    <t>Nonlinear averaging of thermal experience predicts population growth rates in a thermally variable environment</t>
-  </si>
-  <si>
-    <t>Bernhardt, Joey R. and Sunday, Jennifer M. and Thompson, Patrick L. and O'Connor, Mary I.</t>
-  </si>
-  <si>
-    <t>Bernhardt_2018_PROFTHROSOB.SC</t>
-  </si>
-  <si>
-    <t>figure 2, try and get figure s6 data from Joey</t>
+    <t xml:space="preserve">fig s6 </t>
+  </si>
+  <si>
+    <t>Fabricio.Neto_2019_JOOFTHBI</t>
+  </si>
+  <si>
+    <t>Fabricio-Neto, Ailton and Bueno Gavira, Rodrigo Samuel and Andrade, Denis Vieira</t>
+  </si>
+  <si>
+    <t>Thermal regime effects on the resting metabolic rate of rattlesnakes depend on temperature range</t>
+  </si>
+  <si>
+    <t>10.1016/j.jtherbio.2019.05.025</t>
+  </si>
+  <si>
+    <t>While ectothermic organisms often experience considerable circadian variation in body temperature under natural conditions, the study of the effects of temperature on metabolic rates are traditionally based on subjecting animals to constant temperature regimes. Whether data resulting from constant-temperature experiments accurately predicts temperature effects under more natural fluctuating temperature regimes remains uncertain. To address such possibility, we measured the resting metabolic rates of the South American rattlesnakes (Crotalus durissus) under constant and circadian fluctuating thermal regimes in a range of temperatures. Metabolic rates measured at constant 20 degrees C and 25 degrees C did not differ from the rates measured at fluctuating regimes with corresponding mean temperatures. However, the difference between thermal regimes increased with temperature, with the metabolic rate measured at constant 30 degrees C being greater than that measured at the fluctuating thermal regime with corresponding mean temperature. Therefore, our results indicate that thermal regime effects on rattlesnakes' metabolism is dependent on temperature range. Broadly, our results highlight the importance of considering multi-factorial attributes of temperature variation in the exam of its effects over functional traits. Such approach provides a more solid support for inferences about temperature effects on the life history, ecology and conservation of ectothermic organisms.</t>
+  </si>
+  <si>
+    <t>0306-4565</t>
+  </si>
+  <si>
+    <t>n </t>
+  </si>
+  <si>
+    <t>organismal </t>
+  </si>
+  <si>
+    <t>acclimated at fluctuating and exposed to different constant treatments, not sure how to handle the isolated thermoperiod trts (no supp info or explanation in the methods)</t>
   </si>
 </sst>
 </file>
@@ -847,7 +874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +893,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -879,11 +912,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,15 +1232,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,71 +1287,71 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2009</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1329,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1341,27 +1375,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1373,11 +1407,14 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
@@ -1385,27 +1422,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1417,13 +1454,13 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
@@ -1432,27 +1469,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
@@ -1464,13 +1501,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -1479,27 +1516,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1511,13 +1548,13 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
@@ -1526,27 +1563,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1558,13 +1595,13 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>21</v>
@@ -1573,27 +1610,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1605,13 +1642,13 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
@@ -1620,27 +1657,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1652,14 +1689,11 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
@@ -1667,27 +1701,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1699,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1711,27 +1745,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F12">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -1743,7 +1777,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1755,27 +1789,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -1787,10 +1821,13 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
       </c>
       <c r="N13" t="s">
         <v>21</v>
@@ -1799,45 +1836,45 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F14">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
@@ -1846,33 +1883,33 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1884,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
         <v>21</v>
@@ -1893,27 +1930,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1925,13 +1962,13 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
@@ -1940,156 +1977,157 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17">
-        <v>2018</v>
-      </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F17" s="2">
         <v>2012</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F18" s="2">
         <v>2019</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F20" s="2">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
@@ -2098,77 +2136,85 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O21" s="1" t="s">
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F22" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
@@ -2177,77 +2223,82 @@
         <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O23" s="1" t="s">
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F24" s="2">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -2256,481 +2307,538 @@
         <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2013</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O25" s="1" t="s">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="1" t="s">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="1" t="s">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2005</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2019</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37">
+        <v>2019</v>
+      </c>
+      <c r="G37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2018</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>134</v>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="s">
+        <v>277</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T35">
+    <sortCondition descending="1" ref="O2:O35"/>
+    <sortCondition descending="1" ref="J2:J35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77AD130-67B3-E644-AB06-742612CE84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E093D55-A0AE-F84D-B2AF-B43F7585D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-17860" windowWidth="24000" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28800" yWindow="-15320" windowWidth="24000" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="295">
   <si>
     <t>label</t>
   </si>
@@ -859,6 +859,57 @@
   </si>
   <si>
     <t>acclimated at fluctuating and exposed to different constant treatments, not sure how to handle the isolated thermoperiod trts (no supp info or explanation in the methods)</t>
+  </si>
+  <si>
+    <t>Bozinovic2016581</t>
+  </si>
+  <si>
+    <t>Bozinovic, F. and Medina, N.R. and Alruiz, J.M. and Cavieres, G. and Sabat, P.</t>
+  </si>
+  <si>
+    <t>Thermal tolerance and survival responses to scenarios of experimental climatic change: changing thermal variability reduces the heat and cold tolerance in a fly</t>
+  </si>
+  <si>
+    <t>Journal of Comparative Physiology B: Biochemical, Systemic, and Environmental Physiology</t>
+  </si>
+  <si>
+    <t>10.1007/s00360-016-0980-6</t>
+  </si>
+  <si>
+    <t>Climate change poses one of the greatest threats to biodiversity. Most analyses of the impacts have focused on changes in mean temperature, but increasing variance will also impact organisms and populations. We assessed the combined effects of the mean and the variance of temperature on thermal tolerancesi.e., critical thermal maxima, critical thermal minima, scope of thermal tolerance, and survival in Drosophilamelanogaster. Our six experimental climatic scenarios were: constant mean with zero variance or constant variance or increasing variance; changing mean with zero variance or constant variance or increasing variance. Our key result was that environments with changing thermal variance reduce the scope of thermal tolerance and survival. Heat tolerance seems to be conserved, but cold tolerance decreases significantly with mean low as well as changing environmental temperatures. Flies acclimated to scenarios of changing variancewith either constant or changing mean temperaturesexhibited significantly lower survival rate. Our results imply that changing and constant variances would be just as important in future scenarios of climate change under greenhouse warming as increases in mean annual temperature. To develop more realistic predictions about the biological impacts of climate change, such interactions between the mean and variance of environmental temperature should be considered.  2016, Springer-Verlag Berlin Heidelberg.</t>
+  </si>
+  <si>
+    <t>also used in acclimation analysis</t>
+  </si>
+  <si>
+    <t>figure 4</t>
+  </si>
+  <si>
+    <t>organismal</t>
+  </si>
+  <si>
+    <t>maybe acclimation</t>
+  </si>
+  <si>
+    <t>fig 2,3,5</t>
+  </si>
+  <si>
+    <t>The genetic basis of growth and development is often studied in constant laboratory environments; however, the environmental conditions that organisms experience in nature are often much more dynamic. We examined how daily temperature fluctuations, average temperature, day length and vernalization influence the flowering time of 59 genotypes of Arabidopsis thaliana with allelic perturbations known to affect flowering time. For a subset of genotypes, we also assessed treatment effects on morphology and growth. We identified 17 genotypes, many of which have high levels of the floral repressor FLOWERING LOCUS C (FLC), that bolted dramatically earlier in fluctuating - as opposed to constant - warm temperatures (mean = 22C). This acceleration was not caused by transient VERNALIZATION INSENSITIVE 3-mediated vernalization, differential growth rates or exposure to high temperatures, and was not apparent when the average temperature was cool (mean = 12C). Further, in constant temperatures, contrary to physiological expectations, these genotypes flowered more rapidly in cool than in warm environments. Fluctuating temperatures often reversed these responses, restoring faster bolting in warm conditions. Independently of bolting time, warm fluctuating temperature profiles also caused morphological changes associated with shade avoidance or 'high-temperature' phenotypes. Our results suggest that previous studies have overestimated the effect of the floral repressor FLC on flowering time by using constant temperature laboratory conditions.  2015 New Phytologist Trust.</t>
+  </si>
+  <si>
+    <t>10.1111/nph.13799</t>
+  </si>
+  <si>
+    <t>New Phytologist</t>
+  </si>
+  <si>
+    <t>Fluctuating, warm temperatures decrease the effect of a key floral repressor on flowering time in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>Burghardt, L.T. and Runcie, D.E. and Wilczek, A.M. and Cooper, M.D. and Roe, J.L. and Welch, S.M. and Schmitt, J.</t>
+  </si>
+  <si>
+    <t>Burghardt2016564</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1977,27 +2028,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -2009,36 +2060,36 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F18" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
@@ -2050,36 +2101,39 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>142</v>
+        <v>285</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>20</v>
@@ -2091,43 +2145,36 @@
         <v>21</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="2"/>
+        <v>132</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>133</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F20" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
@@ -2139,10 +2186,10 @@
         <v>21</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>134</v>
@@ -2150,25 +2197,25 @@
     </row>
     <row r="21" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>20</v>
@@ -2180,10 +2227,12 @@
         <v>21</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
         <v>134</v>
@@ -2196,25 +2245,25 @@
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F22" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
@@ -2226,7 +2275,10 @@
         <v>21</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>38</v>
+        <v>172</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>134</v>
@@ -2234,25 +2286,25 @@
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F23" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
@@ -2264,7 +2316,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2280,25 +2332,25 @@
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F24" s="2">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -2310,33 +2362,33 @@
         <v>21</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F25" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
@@ -2348,36 +2400,41 @@
         <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F26" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -2389,10 +2446,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>134</v>
@@ -2400,25 +2454,25 @@
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F27" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
@@ -2430,7 +2484,10 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>240</v>
+        <v>211</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>134</v>
@@ -2438,25 +2495,25 @@
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2">
         <v>2020</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>20</v>
@@ -2468,109 +2525,112 @@
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2005</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O29" s="4" t="s">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2019</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="4" t="s">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F31" s="4">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>20</v>
@@ -2582,7 +2642,7 @@
         <v>135</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>134</v>
@@ -2590,25 +2650,25 @@
     </row>
     <row r="32" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="F32" s="4">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>20</v>
@@ -2619,11 +2679,8 @@
       <c r="J32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="M32" s="4" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>134</v>
@@ -2631,25 +2688,25 @@
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="F33" s="4">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>20</v>
@@ -2660,31 +2717,34 @@
       <c r="J33" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="M33" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="O33" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F34" s="4">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>20</v>
@@ -2696,10 +2756,10 @@
         <v>135</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>134</v>
@@ -2707,25 +2767,25 @@
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="F35" s="4">
         <v>2018</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>20</v>
@@ -2736,108 +2796,184 @@
       <c r="J35" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="O35" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F38" s="1">
         <v>2018</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="N38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>269</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>270</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>271</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>272</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>2019</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>273</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>274</v>
       </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
         <v>275</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>56</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L39" t="s">
         <v>276</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M39" t="s">
         <v>277</v>
       </c>
-      <c r="N37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T35">
-    <sortCondition descending="1" ref="O2:O35"/>
-    <sortCondition descending="1" ref="J2:J35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T37">
+    <sortCondition descending="1" ref="O2:O37"/>
+    <sortCondition descending="1" ref="J2:J37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E093D55-A0AE-F84D-B2AF-B43F7585D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C32FF3-EB4E-794C-9B17-3F46E6AF4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-15320" windowWidth="24000" windowHeight="15160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="302">
   <si>
     <t>label</t>
   </si>
@@ -747,9 +747,6 @@
     <t>The biology of Cales noacki Howard (Hymenoptera: Aphelinidae), a particular parasitoid of the woolly whitefly, Aleurothrixus floccosus Maskell (Homoptera: Aleyrodidae), was investigated under laboratory conditions, where the effects of different temperatures [18, 22, 26, 30, 34, 18/26, 26/34 C] and the longevity of adults on different diets [sugar water (10%), water with honey (10%), water, honeydew of A. floccosus, 1st instar larvae of A. floccosus, or no food] were observed. The longest developmental time of C. noacki was identified at 18 C (: 49.0 and : 48.5 days) and the shortest time was at 26 and 30 C constant temperatures (: 19.1, 18.5 and : 19.0, 18.9 days). The developmental threshold of the parasitoid was calculated as 10.0 C and the total effective temperature was 384.6 degree-days. The longest lifespan of adult individuals was at 18 C (: 8.6 and : 8.3 days) and the shortest was under the fluctuating temperature of 26-34 C (: 6.2 and : 6.2 days). The preoviposition period of C. noacki females lasted about 0.8 days, the oviposition period was about 6.4 days, and females parasitized an average of 37.4 hosts during this period. The lifespan of the adults was the longest when fed sugar water (10%) (: 7.4 and : 7.0 days) and the shortest, when without a nutrient (: 1.1 and : 1.3 days).  TBTAK.</t>
   </si>
   <si>
-    <t>table 1 full, fig 1 acclimation</t>
-  </si>
-  <si>
     <t>Verheyen2020</t>
   </si>
   <si>
@@ -910,6 +907,30 @@
   </si>
   <si>
     <t>Burghardt2016564</t>
+  </si>
+  <si>
+    <t>Peng201432</t>
+  </si>
+  <si>
+    <t>Peng, J. and Cao, Z.-D. and Fu, S.-J.</t>
+  </si>
+  <si>
+    <t>The effects of constant and diel-fluctuating temperature acclimation on the thermal tolerance, swimming capacity, specific dynamic action and growth performance of juvenile Chinese bream</t>
+  </si>
+  <si>
+    <t>Comparative Biochemistry and Physiology -Part A : Molecular and Integrative Physiology</t>
+  </si>
+  <si>
+    <t>10.1016/j.cbpa.2014.07.005</t>
+  </si>
+  <si>
+    <t>We investigated the effects of constant and diel-fluctuating temperature acclimation on the thermal tolerance, swimming capacity, specific dynamic action (SDA) and growth performance of juvenile Chinese bream (Parabramis pekinensis). The critical thermal maxima (CTmax), critical thermal minima (CTmin), lethal thermal maxima (LTmax), lethal thermal minima (LTmin), critical swimming speed (Ucrit) and fast-start escape response after 30d acclimation to three constant temperatures (15, 20 and 25C) and one diel-fluctuating temperature (205C) were measured. In addition, feeding rate (FR), feeding efficiency (FE) and specific growth rate (SGR) were measured. The diel-fluctuating temperature group showed lower CTmin than the 20C group but a similar CTmax, indicating a wider thermal scope. SDA linearly increased with the temperature. Temperature variation between 20 and 25C had little effect on either swimming or growth performance. However, fish in the 15C group exhibited much poorer swimming and growth performance than those in the 20C group. Ucrit decreased slightly under low acclimation temperature due to the pronounced improvement in swimming efficiency under cold temperature. Fish in the diel-fluctuating temperature group fed more but exhibited similar SGR compared to 20C group, possibly due in part to an increase in energy expenditure to cope with the temperature fluctuation. The narrower thermal scope and lower CTmax of Chinese bream together with the conservation of CTmax with temperature acclimation, suggests that local water temperature elevations may have more profound effects on Chinese bream than on other fish species in the Three Gorges Reservoir.  2014 Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclimation; excluded the figures/data that reported the fluctuating treatments at the two different min/max; also extracted data for acclimation analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">table 1, fig 1 </t>
   </si>
 </sst>
 </file>
@@ -925,7 +946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,12 +956,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,12 +978,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2028,27 +2042,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" s="2">
         <v>2016</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -2060,60 +2074,60 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>136</v>
       </c>
@@ -2195,7 +2209,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>151</v>
       </c>
@@ -2229,21 +2243,14 @@
       <c r="K21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>167</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>181</v>
       </c>
@@ -2318,19 +2325,11 @@
       <c r="K23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>193</v>
       </c>
@@ -2402,39 +2401,31 @@
       <c r="K25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="F26" s="2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -2446,33 +2437,36 @@
         <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>204</v>
+        <v>95</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F27" s="2">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
@@ -2484,36 +2478,33 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F28" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>20</v>
@@ -2525,36 +2516,36 @@
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F29" s="2">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
@@ -2566,33 +2557,36 @@
         <v>21</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F30" s="2">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -2604,376 +2598,414 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="3">
         <v>2005</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="3">
         <v>2019</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="H33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="3">
         <v>2011</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="H34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="3">
         <v>2016</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="H35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="3">
         <v>2018</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="H36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O36" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F37" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="H37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="O37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O36" s="4" t="s">
+      <c r="M38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="4">
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="1">
         <v>2018</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39">
-        <v>2019</v>
-      </c>
-      <c r="G39" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" t="s">
-        <v>274</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>275</v>
-      </c>
-      <c r="K39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" t="s">
-        <v>276</v>
-      </c>
-      <c r="M39" t="s">
-        <v>277</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="N39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" t="s">
+        <v>276</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T37">
-    <sortCondition descending="1" ref="O2:O37"/>
-    <sortCondition descending="1" ref="J2:J37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T38">
+    <sortCondition descending="1" ref="O2:O38"/>
+    <sortCondition descending="1" ref="J2:J38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C32FF3-EB4E-794C-9B17-3F46E6AF4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721294F-97DF-AF47-96B3-14E407397E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="301">
   <si>
     <t>label</t>
   </si>
@@ -847,9 +847,6 @@
   </si>
   <si>
     <t>0306-4565</t>
-  </si>
-  <si>
-    <t>n </t>
   </si>
   <si>
     <t>organismal </t>
@@ -1299,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2044,25 +2041,25 @@
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F17" s="2">
         <v>2016</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -2074,10 +2071,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>134</v>
@@ -2085,43 +2082,43 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>134</v>
@@ -2407,25 +2404,25 @@
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="F26" s="2">
         <v>2014</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -2440,7 +2437,7 @@
         <v>95</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>134</v>
@@ -2598,7 +2595,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>134</v>
@@ -2984,16 +2981,16 @@
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>56</v>
       </c>
       <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="s">
         <v>275</v>
-      </c>
-      <c r="M40" t="s">
-        <v>276</v>
       </c>
       <c r="N40" t="s">
         <v>21</v>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721294F-97DF-AF47-96B3-14E407397E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E006EEE-61A2-CF43-8313-21D22D190DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28800" yWindow="-28000" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="300">
   <si>
     <t>label</t>
   </si>
@@ -825,12 +825,6 @@
     <t>As thermal regimes change worldwide, projections of future population and species persistence often require estimates of how population growth rates depend on temperature. These projections rarely account for how temporal variation in temperature can systematically modify growth rates relative to projections based on constant temperatures. Here, we tested the hypothesis that time-averaged population growth rates in fluctuating thermal environments differ from growth rates in constant conditions as a consequence of Jensen's inequality, and that the thermal performance curves (TPCs) describing population growth in fluctuating environments can be predicted quantitatively based on TPCs generated in constant laboratory conditions. With experimental populations of the green alga Tetraselmis tetrahele, we show that nonlinear averaging techniques accurately predicted increased as well as decreased population growth rates in fluctuating thermal regimes relative to constant thermal regimes. We extrapolate from these results to project critical temperatures for population growth and persistence of 89 phytoplankton species in naturally variable thermal environments. These results advance our ability to predict population dynamics in the context of global change.</t>
   </si>
   <si>
-    <t xml:space="preserve">check supplementary info, constant vs flux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fig s6 </t>
-  </si>
-  <si>
     <t>Fabricio.Neto_2019_JOOFTHBI</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
     <t>organismal</t>
   </si>
   <si>
-    <t>maybe acclimation</t>
-  </si>
-  <si>
     <t>fig 2,3,5</t>
   </si>
   <si>
@@ -928,6 +919,12 @@
   </si>
   <si>
     <t xml:space="preserve">table 1, fig 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check supplementary info (figure s6), constant vs flux </t>
+  </si>
+  <si>
+    <t>maybe acclimation; not sure what to do with all these reported genotypes in figure 2-5…considering extracting figure s8</t>
   </si>
 </sst>
 </file>
@@ -943,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,6 +959,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -975,11 +978,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2039,86 +2043,89 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="2">
+      <c r="C17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="4">
         <v>2016</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>134</v>
@@ -2161,6 +2168,9 @@
       <c r="M19" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="N19" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>134</v>
       </c>
@@ -2202,6 +2212,9 @@
       <c r="M20" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="N20" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>134</v>
       </c>
@@ -2243,6 +2256,9 @@
       <c r="M21" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="N21" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>134</v>
       </c>
@@ -2404,25 +2420,25 @@
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="F26" s="2">
         <v>2014</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -2437,7 +2453,7 @@
         <v>95</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>134</v>
@@ -2595,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>134</v>
@@ -2939,11 +2955,11 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>267</v>
+      <c r="K39" t="s">
+        <v>56</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>21</v>
@@ -2954,28 +2970,28 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" t="s">
         <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" t="s">
-        <v>270</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F40">
         <v>2019</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2987,10 +3003,10 @@
         <v>56</v>
       </c>
       <c r="L40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N40" t="s">
         <v>21</v>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E006EEE-61A2-CF43-8313-21D22D190DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9B38F-31EE-9B43-AE7D-76EF65A14CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28000" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="294">
   <si>
     <t>label</t>
   </si>
@@ -525,30 +525,6 @@
     <t>unclear, experimental design involves constant acc to flux with an converse trt?</t>
   </si>
   <si>
-    <t>Journal of Insect Physiology</t>
-  </si>
-  <si>
-    <t>Haupt2017108</t>
-  </si>
-  <si>
-    <t>Haupt, T.M. and Sinclair, B.J. and Chown, S.L.</t>
-  </si>
-  <si>
-    <t>Thermal preference and performance in a sub-Antarctic caterpillar: A test of the coadaptation hypothesis and its alternatives</t>
-  </si>
-  <si>
-    <t>10.1016/j.jinsphys.2016.12.006</t>
-  </si>
-  <si>
-    <t>Physiological ecologists have long assumed that thermoregulatory behaviour will evolve to optimise physiological performance. The coadaptation hypothesis predicts that an animal's preferred body temperature will correspond to the temperature at which its performance is optimal. Here we use a strong inference approach to examine the relationship between thermal preference and locomotor performance in the caterpillars of a wingless sub-Antarctic moth, Pringleophaga marioni Viette (Tineidae). The coadaptation hypothesis and its alternatives (suboptimal is optimal, thermodynamic effect, trait variation) are tested. Compared to the optimal movement temperature (22.5C for field-fresh caterpillars and 25, 20, 22.5, 25 and 20C following seven day acclimations to 0, 5, 10, 15 and 515C respectively), caterpillar thermal preference was significantly lower (9.2C for field-fresh individuals and 9.4, 8.8, 8.1, 5.2 and 4.6C following acclimation to 0, 5, 10, 15 and 515C, respectively). Together with the low degree of asymmetry observed in the performance curves, and the finding that acclimation to high temperatures did not result in maximal performance, all, but one of the above hypotheses (i.e. trait variation) was rejected. The thermal preference of P. marioni caterpillars more closely resembles temperatures at which survival is high (510C), or where feeding is optimal (10C), than where locomotion speed is maximal, suggesting that thermal preference may be optimised for overall fitness rather than for a given trait.  2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table 1a, 2 </t>
-  </si>
-  <si>
-    <t>acclimation….maybe also included in the full analysis</t>
-  </si>
-  <si>
     <t>Imholt2011436</t>
   </si>
   <si>
@@ -925,6 +901,12 @@
   </si>
   <si>
     <t>maybe acclimation; not sure what to do with all these reported genotypes in figure 2-5…considering extracting figure s8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had to convert 95%CI to SD </t>
+  </si>
+  <si>
+    <t>only extracted end weights to avoid colinearity of time series data; study used multiple age stages so I just coded as adults since they were held in captivity for a while?</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2045,25 +2027,25 @@
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F17" s="4">
         <v>2016</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
@@ -2075,10 +2057,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>134</v>
@@ -2086,25 +2068,25 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
@@ -2116,13 +2098,13 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>21</v>
@@ -2263,69 +2245,66 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M22" s="2" t="s">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2336,7 +2315,13 @@
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>186</v>
+        <v>38</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>134</v>
@@ -2344,26 +2329,26 @@
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2374,33 +2359,39 @@
         <v>21</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="F25" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
@@ -2412,86 +2403,95 @@
         <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O26" s="2" t="s">
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2021</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="2">
-        <v>2021</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>204</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>134</v>
@@ -2499,25 +2499,25 @@
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F28" s="2">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>20</v>
@@ -2529,10 +2529,13 @@
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>134</v>
@@ -2540,25 +2543,25 @@
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
@@ -2570,10 +2573,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>134</v>
@@ -2581,101 +2581,101 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2009</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O31" s="2" t="s">
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F32" s="3">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>20</v>
@@ -2687,7 +2687,7 @@
         <v>135</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>134</v>
@@ -2695,25 +2695,25 @@
     </row>
     <row r="33" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F33" s="3">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>20</v>
@@ -2725,7 +2725,7 @@
         <v>135</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>134</v>
@@ -2733,25 +2733,25 @@
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F34" s="3">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>20</v>
@@ -2762,8 +2762,11 @@
       <c r="J34" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="K34" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="M34" s="3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>134</v>
@@ -2771,25 +2774,25 @@
     </row>
     <row r="35" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F35" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>20</v>
@@ -2800,37 +2803,31 @@
       <c r="J35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F36" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -2841,31 +2838,37 @@
       <c r="J36" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="K36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="O36" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -2876,149 +2879,108 @@
       <c r="J37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="M37" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F38" s="3">
-        <v>2018</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>258</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="B39" t="s">
         <v>259</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C39" t="s">
         <v>260</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
         <v>261</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39">
+        <v>2019</v>
+      </c>
+      <c r="G39" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="H39" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>22</v>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
       </c>
       <c r="K39" t="s">
         <v>56</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="L39" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" t="s">
+        <v>265</v>
+      </c>
+      <c r="N39" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40">
-        <v>2019</v>
-      </c>
-      <c r="G40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" t="s">
-        <v>272</v>
-      </c>
-      <c r="M40" t="s">
-        <v>273</v>
-      </c>
-      <c r="N40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T38">
-    <sortCondition descending="1" ref="O2:O38"/>
-    <sortCondition descending="1" ref="J2:J38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T37">
+    <sortCondition descending="1" ref="O2:O37"/>
+    <sortCondition descending="1" ref="J2:J37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA9B38F-31EE-9B43-AE7D-76EF65A14CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85975A1-9367-0E41-B4EE-EB1980497FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-28000" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="296">
   <si>
     <t>label</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>only extracted end weights to avoid colinearity of time series data; study used multiple age stages so I just coded as adults since they were held in captivity for a while?</t>
+  </si>
+  <si>
+    <t>no reported error on figure 1, excluded</t>
+  </si>
+  <si>
+    <t>assumed lower sample size range of 24 (range = 24-26)</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,6 +2581,12 @@
       <c r="K29" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O29" s="2" t="s">
         <v>134</v>
       </c>
@@ -2612,6 +2624,12 @@
       </c>
       <c r="K30" s="2" t="s">
         <v>238</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>134</v>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85975A1-9367-0E41-B4EE-EB1980497FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34451876-3827-EF45-854E-BB497FA8B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28800" yWindow="-28000" windowWidth="24000" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="299">
   <si>
     <t>label</t>
   </si>
@@ -477,9 +477,6 @@
     <t>In non-irrigated agricultural fields in tropical zones, high temperature and water stress prevail during the main cropping season. Natural epizootics of Beauveria bassiana on lepidopteran pests occur during winter. Application of B. bassiana during hot months when pest populations are at their climax may prove an effective management strategy. Therefore, 29 isolates of B. bassiana were tested for their ability to germinate and grow in temperature and water availability conditions prevailing during the pest season in these fields. The effect of temperature cycles with 8 h duration of high temperature fluctuating with 16 h duration of lower temperature (similar to field conditions); low water availability; and a combination of these two stress conditions was studied. Germination and growth assays were done at fluctuating temperature cycles of 32, 35, 38, and 42  1C (8 h)/25  1C (16 h) and in media with water stress created by 10, 20, 30, and 40% polyethylene glycol (PEG 6000). Assays set at a continuous temperature of 25  1C with no PEG in the medium served as controls. Stress was assessed as percentage germination or as growth relative to control. Isolates showing 90% growth relative to the control at temperature cycles including high temperatures of 35 and 38  1C were identified. One isolate (ARSEF 2860) had a thermal threshold above 43C. At 25C, all but one isolate of B. bassiana showed &gt;90% growth relative to the control in 10% PEG (-0.45 MPa). Some isolates were found with &gt;90% growth relative to control in medium having 30% PEG with water availability (1.33 MPa), nearly equivalent to that in soils which induce permanent wilting point of plants. When isolates that showed &gt;90% growth relative to the control at both stress conditions, were stressed simultaneously, a decrease in growth was observed. Growth was reduced by 20% at 35  1C (8 h)/25  1C (16 h) and 10% PEG and was affected to a greater degree in combinations of harsher stress conditions. The isolate ARSEF 2860 with a thermal threshold of &gt;43C showed 80% relative growth at a combined stress of 38  1C (8 h)/25  1C (16 h) and 10% PEG. These findings will aid the selection of isolates for use in field trials in hot or dry agricultural climates.  2005 Elsevier Inc. All rights reserved.</t>
   </si>
   <si>
-    <t>unclear, constant trt has a 1 C flux…</t>
-  </si>
-  <si>
     <t>Dong2008329</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>Ectothermic organisms often experience considerable variation in their body temperature throughout the circadian cycle. However, studies focusing on the measurement of physiological traits are usually performed under constant temperature regimes. This mismatch between thermal exposure in the field and experimental conditions could act as a stressor agent, as physiological functions are strongly influenced by temperature. Herein, we asked the question whether constant thermal regimes would cause a stress response and impact the immunity of the South American rattlesnake (Crotalus durissus) when compared with a fluctuating thermal regime. We addressed this question by determining heterophil:lymphocyte (H:L) ratio, plasma bacteria-killing ability (BKA) and corticosterone (CORT) levels in snakes kept under a constant temperature regime at 30C, and under a fluctuating regime that oscillated between 25C at night and 35C during the day. The experiments had a mirrored design, in which half of the snakes were subjected to a fluctuating-to-constant treatment, while the other half was exposed to a constant-to-fluctuating treatment. The shift from constant to fluctuating thermal regime was accompanied by an increase in plasma CORT levels, indicating the activation of a stress response. Exposure to a fluctuating thermal regime at the onset of the experiments induced a decrease in the BKA of rattlesnakes. H:L ratio was not affected by treatments and, therefore, the shift between thermal regimes seems to have acted as a low-intensity stressor. Our results suggest that removal from temperatures close to the snake's preferred body temperature triggers a stress response in rattlesnakes.  2019. Published by The Company of Biologists Ltd</t>
   </si>
   <si>
-    <t>unclear, experimental design involves constant acc to flux with an converse trt?</t>
-  </si>
-  <si>
     <t>Imholt2011436</t>
   </si>
   <si>
@@ -909,10 +903,25 @@
     <t>only extracted end weights to avoid colinearity of time series data; study used multiple age stages so I just coded as adults since they were held in captivity for a while?</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>no reported error on figure 1, excluded</t>
   </si>
   <si>
     <t>assumed lower sample size range of 24 (range = 24-26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean and fluctuating treatment have different means </t>
+  </si>
+  <si>
+    <t>unclear, experimental design involves constant acc to flux with an converse trt, no constant during all times treatment?</t>
+  </si>
+  <si>
+    <t>theoretical paper, not data driven</t>
+  </si>
+  <si>
+    <t>fig 2,3, table 1</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2033,25 +2042,25 @@
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F17" s="4">
         <v>2016</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
@@ -2063,10 +2072,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>134</v>
@@ -2074,43 +2083,43 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>21</v>
@@ -2209,40 +2218,40 @@
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F21" s="2">
         <v>2008</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>21</v>
@@ -2253,25 +2262,25 @@
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F22" s="4">
         <v>2013</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>20</v>
@@ -2283,7 +2292,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>134</v>
@@ -2291,25 +2300,25 @@
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F23" s="2">
         <v>2015</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
@@ -2324,7 +2333,7 @@
         <v>38</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>21</v>
@@ -2335,25 +2344,25 @@
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F24" s="2">
         <v>2010</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -2368,7 +2377,7 @@
         <v>56</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>21</v>
@@ -2379,25 +2388,25 @@
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F25" s="2">
         <v>2014</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
@@ -2412,7 +2421,7 @@
         <v>95</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>21</v>
@@ -2423,25 +2432,25 @@
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="F26" s="4">
         <v>2021</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>20</v>
@@ -2453,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>134</v>
@@ -2461,40 +2470,40 @@
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F27" s="2">
         <v>2011</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>21</v>
@@ -2505,40 +2514,40 @@
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F28" s="2">
         <v>2020</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>21</v>
@@ -2549,25 +2558,25 @@
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F29" s="2">
         <v>2009</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
@@ -2579,10 +2588,10 @@
         <v>21</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>21</v>
@@ -2593,25 +2602,25 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F30" s="2">
         <v>2020</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -2623,10 +2632,10 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>21</v>
@@ -2664,10 +2673,10 @@
         <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>134</v>
@@ -2675,25 +2684,25 @@
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F32" s="3">
         <v>2019</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>20</v>
@@ -2702,10 +2711,10 @@
         <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>134</v>
@@ -2713,25 +2722,25 @@
     </row>
     <row r="33" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F33" s="3">
         <v>2011</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>20</v>
@@ -2740,10 +2749,10 @@
         <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>134</v>
@@ -2751,40 +2760,40 @@
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="F34" s="3">
         <v>2016</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>134</v>
@@ -2792,25 +2801,25 @@
     </row>
     <row r="35" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F35" s="3">
         <v>2018</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>20</v>
@@ -2819,7 +2828,10 @@
         <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>135</v>
+        <v>292</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>134</v>
@@ -2827,25 +2839,25 @@
     </row>
     <row r="36" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="F36" s="3">
         <v>2020</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -2857,10 +2869,10 @@
         <v>135</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>134</v>
@@ -2868,25 +2880,25 @@
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F37" s="3">
         <v>2018</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -2898,7 +2910,7 @@
         <v>135</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>134</v>
@@ -2906,25 +2918,25 @@
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="F38" s="1">
         <v>2018</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>20</v>
@@ -2939,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>21</v>
@@ -2950,28 +2962,28 @@
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" t="s">
         <v>258</v>
-      </c>
-      <c r="B39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" t="s">
-        <v>260</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F39">
         <v>2019</v>
       </c>
       <c r="G39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -2983,10 +2995,10 @@
         <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N39" t="s">
         <v>21</v>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34451876-3827-EF45-854E-BB497FA8B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4822F2-DBDE-0341-9821-E7006D3A2921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-28000" windowWidth="24000" windowHeight="16060" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28800" yWindow="-16440" windowWidth="24000" windowHeight="13620" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2837,82 +2837,82 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>2020</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>2018</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="4" t="s">
         <v>134</v>
       </c>
     </row>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4822F2-DBDE-0341-9821-E7006D3A2921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFAB159-FC50-884F-AC4B-4749CD16165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-16440" windowWidth="24000" windowHeight="13620" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="28780" yWindow="-14600" windowWidth="24000" windowHeight="13620" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="312">
   <si>
     <t>label</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Understanding the potential for organisms to tolerate thermal stress through physiological or evolutionary responses is crucial given rapid climate change. Although climate models predict increases in both temperature mean and variance, such tolerances are typically assessed under constant conditions. We tested the effects of temperature variability during development on male fitness in the rainforest fly Drosophila birchii, by simulating thermal variation typical of the warm and cool margins of its elevational distribution, and estimated heritabilities and genetic correlations of fitness traits. Reproductive success was reduced for males reared in warm (mean 24 degrees C) fluctuating (+/- 3 degrees C) vs. constant conditions but not in cool fluctuating conditions (mean 17 degrees C), although fluctuations reduced body size at both temperatures. Male reproductive success under warm fluctuating conditions was similar to that at constant 27 degrees C, indicating that briefly exceeding critical thermal limits has similar fitness costs to continuously stressful conditions. There was substantial heritable variation in all traits. However, reproductive success traits showed no genetic correlation between treatments reflecting temperature variation at elevational extremes, which may constrain evolutionary responses at these ecological margins. Our data suggest that even small increases in temperature variability will threaten tropical ectotherms living close to their upper thermal limits, both through direct effects on fitness and by limiting their adaptive potential.</t>
   </si>
   <si>
-    <t>check out different experiment treatments</t>
-  </si>
-  <si>
     <t>original search</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>SCOPUS405</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Delnat20191237</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t>Primula beesiana Forr. is an attractive wildflower endemically distributed in the wet habitats of subalpine/alpine regions of southwestern China. This study is an attempt to understand how this plant adapts to wet habitats and high altitudes. Specifically, we examined the effects of cold stratification, light, GA3, KNO3, and temperature on P. beesiana seed germination. KNO3 and GA3 increased germination percentage and germination rate compared to control treatments at 15/5 and 25/15 C. Untreated seeds germinated well (&amp;gt; 80%) at higher temperatures (20, 25 and 28 C), whereas at lower (5, 10 and 15 C) and extremely high temperatures (30 and 32 C) germination decreased significantly. However, after cold stratification (416 weeks), the germination percentage of P. beesiana seeds at low temperatures (515 C) and the germination rate at high temperatures (30 C) increased significantly, suggesting that P. beesiana has type 3 non-deep physiological dormancy. The base temperature and thermal time for germination decreased in seeds that were cold stratified for 16 weeks. Cold-stratified seeds incubated at fluctuating temperatures (especially at 15/5 C) had significantly high germination percentages and germination rates in light, but not in dark, compared to the corresponding constant temperature (10 C). Seeds had a strict light requirement at all temperatures, even after experiencing cold stratification; however, the combinations of cold stratification and fluctuating temperature increased germination when seeds were transferred from dark to light. Such dormancy/germination responses to light and temperature are likely mechanisms that ensure germination occurs only in spring and at/near the soil surface, thus avoiding seedling death by freezing, inundation and/or germination deep in the soil.  2020 Kunming Institute of Botany, Chinese Academy of Sciences</t>
   </si>
   <si>
-    <t>maybe full analysis, and pulse press?</t>
-  </si>
-  <si>
     <t>Zhang20181202</t>
   </si>
   <si>
@@ -774,9 +765,6 @@
     <t>Temperature is a well-known environmental stress that influences both microbial metabolism and community structure in the biological wastewater treatment systems. In this study, responses of biological performance and sludge microbiota to the long-term day/night temperature differences (DNTD) were investigated in membrane bioreactors (MBRs). The results showed that the functional bacteria could sustained their ecological functions at low DNTD (20/30 C), resulting in relatively stable performance with respect to nutrient removal. However, when the activated sludge was subjected to a high DNTD (17/33 C), the effluent concentrations of COD, TN and TP were significantly higher in MBR-B than that in MBR-A. In addition, more severe membrane fouling occurred under the perturbation of high DNTD as revealed by the transmembrane pressure (TMP) profile, which was mainly attributed to the accumulation of extracellular polymeric substances (EPS). The results of 16S rRNA gene sequencing showed that DNTD showed negligible effect on the bacterial community structures. Nonetheless, the functional bacteria responded differently to DNTD, which were in accordance with the bioreactor performances. Specifically, Nitrospina (NOB) and Tetrasphaera (PAOs) appeared to be sensitive to both low and high DNTD. In contrast, a low DNTD showed marginal effects on the denitrifiers, while a high DNTD significantly decreased their abundances. More strikingly, filamentous bulking bacteria were found to be well-adapted to DNTD, indicating their tolerance to the daily temperature fluctuation. This study will advance our knowledge regarding the response of microbial ecology of activated sludge to daily temperature variations in full-scale MBRs.  2018 Elsevier B.V.</t>
   </si>
   <si>
-    <t>microbiota in sludge, it seems like they have a paired set of experiments but unclear…</t>
-  </si>
-  <si>
     <t>Bernhardt_2018_PROFTHROSOB.SC</t>
   </si>
   <si>
@@ -888,9 +876,6 @@
     <t xml:space="preserve">acclimation; excluded the figures/data that reported the fluctuating treatments at the two different min/max; also extracted data for acclimation analysis </t>
   </si>
   <si>
-    <t xml:space="preserve">table 1, fig 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">check supplementary info (figure s6), constant vs flux </t>
   </si>
   <si>
@@ -915,13 +900,67 @@
     <t xml:space="preserve">mean and fluctuating treatment have different means </t>
   </si>
   <si>
-    <t>unclear, experimental design involves constant acc to flux with an converse trt, no constant during all times treatment?</t>
-  </si>
-  <si>
     <t>theoretical paper, not data driven</t>
   </si>
   <si>
     <t>fig 2,3, table 1</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>excluded because none of the control data is normally distributed</t>
+  </si>
+  <si>
+    <t>excluded some treatments because non-normally distributed data, see raw extraction file for more details</t>
+  </si>
+  <si>
+    <t> data but it’s reported as model estimates</t>
+  </si>
+  <si>
+    <t>maybe full analysis, and pulse press; excluded because they feature cold stratification at 1C over different days as an additional treatment</t>
+  </si>
+  <si>
+    <t>microbiota in sludge, it seems like they have a paired set of experiments; excluded because not ecologically relevant, it deals with effects of temperature fluctuations on wastewater treatment</t>
+  </si>
+  <si>
+    <t>unclear, experimental design involves constant acc to flux with an converse trt, no constant during all times treatment; data is not normally distributed, therefore eventhough the per treatments are extractable, no error calcs are usable</t>
+  </si>
+  <si>
+    <t>Seeds collected and acclimated in the field, then dried and incubated at a fluctuating temperature with a chilling period at some point in the middle; extracted but ultimately excluded because of experimental design featuring both field and lab acclimation patterns in the same seeds</t>
+  </si>
+  <si>
+    <t>Singh_2020_BRJOOFBI</t>
+  </si>
+  <si>
+    <t>Singh, D. S. and Alkins-Koo, M. and Rostant, L., V and Mohammed, A.</t>
+  </si>
+  <si>
+    <t>Heart rate responses to different temperatures in juvenile Poppiana dentata (Randall, 1840)</t>
+  </si>
+  <si>
+    <t>BRAZILIAN JOURNAL OF BIOLOGY</t>
+  </si>
+  <si>
+    <t>10.1590/1519-6984.188457</t>
+  </si>
+  <si>
+    <t>Temperature is one of the main factors that influences cardiovascular functioning in ectotherms. Hence this study sought to investigate heart rate responses of a freshwater crab species, Poppiana dentata, to different temperature exposures since the species generally reside in habitats of fluctuating physicochemistry. Heart rates were non-invasively determined in juvenile crabs for three temperature regimes, each over an 8-day session; A: temperature exposures of 26 degrees C (2 days) to 30 degrees C (3 days) to 26 degrees C (3 days), B: 26 degrees C (2 days) to 32 degrees C (3 days) to 26 degrees C (3 days) and C: a control at constant 26 degrees C. I kart rate variations were significant among the regimes (P &lt; 0.05), with the median heart rate being highest for regime B (74 beats per minute or bpm) during the temperature insult (32 degrees C), relative to regime A (70 bpm) and the control (64 bpm). Notably, a suppression and inversion of the diurnal cardiac patterns occurred for regimes' A and B crabs respectively, with rates from the highest temperature insult not shifting back to pre-insult levels during recovery (26 degrees C). It is plausible that P. dentata may have compensatory cardiovascular mechanisms that account for these differential heart rate responses, possibly conveying adaptive strategies in its dynamic habitat conditions.</t>
+  </si>
+  <si>
+    <t>1519-6984</t>
+  </si>
+  <si>
+    <t>this does have a constant treatment, but seems like pulse press….; excluded because the variability treatment featured different constant temps over a few days</t>
+  </si>
+  <si>
+    <t>check out different experiment treatments; data is normally distributed, calculated SD for IQR see raw data file</t>
+  </si>
+  <si>
+    <t>excluded figure 2a and 4b because of non-normal distribution</t>
+  </si>
+  <si>
+    <t>excluded some treatments because non-normally distributed data; excluded 25 C treatment and 30 C</t>
   </si>
 </sst>
 </file>
@@ -1295,15 +1334,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,10 +1386,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1391,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1435,10 +1477,10 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1482,10 +1524,10 @@
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1529,10 +1571,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1576,10 +1618,10 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1623,10 +1665,10 @@
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1670,10 +1712,10 @@
         <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1717,10 +1759,10 @@
         <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -1761,10 +1803,10 @@
         <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1801,14 +1843,20 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
+      <c r="M11" t="s">
+        <v>310</v>
+      </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1849,10 +1897,10 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1896,10 +1944,10 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1943,10 +1991,10 @@
         <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1990,10 +2038,10 @@
         <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -2031,36 +2079,36 @@
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F17" s="4">
         <v>2016</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
@@ -2072,36 +2120,36 @@
         <v>21</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="F18" s="2">
         <v>2016</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
@@ -2113,212 +2161,218 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="2">
         <v>2012</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F20" s="2">
         <v>2019</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F21" s="2">
         <v>2008</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="N21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="F22" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="M22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F23" s="2">
         <v>2015</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
@@ -2333,36 +2387,36 @@
         <v>38</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F24" s="2">
         <v>2010</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
@@ -2377,36 +2431,36 @@
         <v>56</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F25" s="2">
         <v>2014</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
@@ -2421,206 +2475,212 @@
         <v>95</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="F26" s="4">
         <v>2021</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="3">
+        <v>2011</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="2">
-        <v>2011</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="N27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="F28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="2">
-        <v>2020</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F29" s="2">
         <v>2009</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F30" s="2">
         <v>2020</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -2632,39 +2692,39 @@
         <v>21</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F31" s="3">
         <v>2005</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>20</v>
@@ -2673,74 +2733,80 @@
         <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="F32" s="3">
         <v>2019</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="F33" s="3">
         <v>2011</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>20</v>
@@ -2749,77 +2815,83 @@
         <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="F34" s="3">
         <v>2016</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>210</v>
+      <c r="N34" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="F35" s="3">
         <v>2018</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>20</v>
@@ -2828,115 +2900,124 @@
         <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="N36" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="N37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F37" s="4">
-        <v>2018</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M37" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F38" s="1">
         <v>2018</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>20</v>
@@ -2951,39 +3032,39 @@
         <v>56</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F39">
         <v>2019</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -2995,16 +3076,60 @@
         <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
+++ b/data extraction /lit search metadata /fullvariability /fullvariability_7jun21.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFAB159-FC50-884F-AC4B-4749CD16165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD9435-3948-8B46-8FA9-6FD65D985835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="-14600" windowWidth="24000" windowHeight="13620" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="24000" windowHeight="13620" xr2:uid="{1590338E-647F-824F-9766-668D1776E023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="313">
   <si>
     <t>label</t>
   </si>
@@ -961,6 +964,9 @@
   </si>
   <si>
     <t>excluded some treatments because non-normally distributed data; excluded 25 C treatment and 30 C</t>
+  </si>
+  <si>
+    <t>didn't extract figure 5 as nothing reported for flux trt</t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,19 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,12 +1008,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,1806 +1328,1819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDF54A4-7244-6B4F-B3C6-F723070AAEF8}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2009</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2011</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2019</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2015</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2014</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2018</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2019</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2015</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2016</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2012</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2014</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>2007</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2016</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2004</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>2018</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F19" s="1">
         <v>2016</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M19" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="1">
         <v>2016</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="2" t="s">
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="1">
         <v>2012</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="1">
         <v>2019</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="N22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="1">
         <v>2008</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2013</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O22" s="3" t="s">
+    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="2" t="s">
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="2" t="s">
+    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="2" t="s">
+    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O26" s="4" t="s">
+    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2011</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="3">
+    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="1">
         <v>2020</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2009</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="F30" s="2">
         <v>2020</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F34" s="2">
         <v>2005</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F35" s="2">
         <v>2019</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N35" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O35" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F36" s="2">
         <v>2011</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N36" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F37" s="2">
         <v>2016</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F38" s="2">
         <v>2018</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F39" s="2">
         <v>2020</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N39" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F40" s="2">
         <v>2018</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N40" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O40" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39">
-        <v>2019</v>
-      </c>
-      <c r="G39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" t="s">
-        <v>258</v>
-      </c>
-      <c r="M39" t="s">
-        <v>259</v>
-      </c>
-      <c r="N39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T37">
-    <sortCondition descending="1" ref="O2:O37"/>
-    <sortCondition descending="1" ref="J2:J37"/>
+  <autoFilter ref="A2:P40" xr:uid="{244CEB28-D3C0-EB47-818A-21E7D507A851}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P42">
+    <sortCondition descending="1" ref="N2:N42"/>
+    <sortCondition descending="1" ref="O2:O42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
